--- a/config/battle.xlsx
+++ b/config/battle.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yutao/workspace/cocos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\cysh5\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16220" yWindow="1720" windowWidth="28160" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="16215" yWindow="1725" windowWidth="28155" windowHeight="16095" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>pos_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,14 +155,50 @@
   </si>
   <si>
     <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前进两步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后退三步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜获得奖励1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜获得奖励2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜获得奖励3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜获得奖励4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜获得奖励5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前进五步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,11 +241,42 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{F3FA89AE-2E0E-468A-8F4F-DA31C55AFD52}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -477,16 +544,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -499,8 +566,11 @@
       <c r="D1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -508,7 +578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -521,8 +591,11 @@
       <c r="D3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -530,7 +603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -543,8 +616,11 @@
       <c r="D5">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -552,7 +628,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -565,8 +641,11 @@
       <c r="D7">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -574,7 +653,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -582,7 +661,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -590,7 +669,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -603,8 +682,11 @@
       <c r="D11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -612,7 +694,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -620,7 +702,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -633,8 +715,11 @@
       <c r="D14">
         <v>130</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -642,7 +727,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -650,7 +735,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -663,8 +748,11 @@
       <c r="D17">
         <v>160</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -672,7 +760,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -680,7 +768,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -693,8 +781,11 @@
       <c r="D20">
         <v>190</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -702,7 +793,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -710,7 +801,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -723,8 +814,11 @@
       <c r="D23">
         <v>220</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -732,7 +826,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -745,8 +839,11 @@
       <c r="D25">
         <v>240</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -754,7 +851,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -762,7 +859,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -770,7 +867,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -781,5 +878,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>